--- a/Review Paper/SleepPostureReviewSummary.xlsx
+++ b/Review Paper/SleepPostureReviewSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad.Nadeem\Documents\GitHub\Sleep-Posture\Review Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73FACE7-D833-48CE-887D-2233911C8E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B6F156-D12F-42F6-99D8-71B2AE27092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="595">
   <si>
     <t>Title</t>
   </si>
@@ -2042,6 +2042,60 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Sleep position classification with a compact pressure textile sensor mattress using convolutional neural networks</t>
+  </si>
+  <si>
+    <t>Breuss</t>
+  </si>
+  <si>
+    <t>Pressure textile sensor</t>
+  </si>
+  <si>
+    <t>Mattress</t>
+  </si>
+  <si>
+    <t>392=14x28</t>
+  </si>
+  <si>
+    <t>40 cm x 80 cm</t>
+  </si>
+  <si>
+    <t>Resistive pressure sensing</t>
+  </si>
+  <si>
+    <t>Under the chest and shoulders</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Supine, Lateral left, Lateral right, Prone</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>1248 Position samples</t>
+  </si>
+  <si>
+    <t>608 images</t>
+  </si>
+  <si>
+    <t>Supine: 85.0%, Lateral Left: 80.1%, Lateral Right: 86.5%, Prone: 76.2%</t>
+  </si>
+  <si>
+    <t>82.7% (Generalized), 95% (Personalized Male), 92% (Personalized Female)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.819 (Generalized), 0.950 (Personalized Male), 0.914 (Personalized Female)</t>
+  </si>
+  <si>
+    <t>Difficulty distinguishing between lateral positions, small sensor area limits classification for limb positions</t>
+  </si>
+  <si>
+    <t>Explore larger sensor areas, incorporate body movement tracking, collect more data for bed occupancy detection</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3094,6 +3148,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9131,11 +9191,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9155,12 +9216,13 @@
     <col min="18" max="18" width="43.7109375" style="118" customWidth="1"/>
     <col min="19" max="19" width="22.140625" style="95" customWidth="1"/>
     <col min="20" max="21" width="34" style="95" customWidth="1"/>
-    <col min="22" max="23" width="20.140625" style="95" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="95"/>
+    <col min="22" max="22" width="21.28515625" style="95" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="95" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="95" customWidth="1"/>
     <col min="25" max="25" width="21.85546875" style="95" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="21.85546875" style="95" customWidth="1"/>
-    <col min="28" max="28" width="20.5703125" customWidth="1"/>
-    <col min="29" max="29" width="23" customWidth="1"/>
+    <col min="28" max="28" width="29.85546875" customWidth="1"/>
+    <col min="29" max="29" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9252,7 +9314,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="192" t="s">
         <v>500</v>
       </c>
@@ -9418,7 +9480,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="193" t="s">
         <v>541</v>
       </c>
@@ -9566,9 +9628,119 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="195"/>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="193"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="192"/>
+      <c r="O6" s="197"/>
+      <c r="P6" s="192"/>
+      <c r="Q6" s="192"/>
+      <c r="R6" s="192"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="197"/>
+      <c r="Y6" s="198"/>
+      <c r="Z6" s="197"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="192"/>
+      <c r="AC6" s="192"/>
+    </row>
+    <row r="7" spans="1:29" s="94" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="199" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2024</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>4</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="W7" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z7" s="72">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB7" s="200" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC7" s="200" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="196"/>
@@ -9596,6 +9768,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="196"/>
+      <c r="B15" s="195"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="196"/>
@@ -9617,10 +9790,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="196"/>
-      <c r="B22" s="195"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="196"/>
+      <c r="B23" s="195"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="196"/>
@@ -9636,7 +9809,6 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="196"/>
-      <c r="B28" s="195"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="196"/>
@@ -9664,9 +9836,13 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="196"/>
+      <c r="B35" s="195"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="196"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="196"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13155,21 +13331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D86B0467C8778A4896096E58A738E877" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a8f5d213ce12075409aa9292d25b5485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22889b2a-e369-4f7d-9ac6-bb136fb8b756" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff8afc11520742ae1b26ea4082abcef4" ns2:_="">
     <xsd:import namespace="22889b2a-e369-4f7d-9ac6-bb136fb8b756"/>
@@ -13313,24 +13474,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5BC9BC-2C06-468A-BAD2-F311B2EA373A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AE1D26-874A-42F4-B693-E19F8FFD4718}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5224A2D3-799A-4CFF-9450-A7320BB3A2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13346,4 +13505,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AE1D26-874A-42F4-B693-E19F8FFD4718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5BC9BC-2C06-468A-BAD2-F311B2EA373A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Review Paper/SleepPostureReviewSummary.xlsx
+++ b/Review Paper/SleepPostureReviewSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad.Nadeem\Documents\GitHub\Sleep-Posture\Review Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B6F156-D12F-42F6-99D8-71B2AE27092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83A8149-8554-440E-B291-376F4DE5AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="630">
   <si>
     <t>Title</t>
   </si>
@@ -1819,9 +1819,6 @@
     <t>ISCAS</t>
   </si>
   <si>
-    <t>Flexible material based on Velostat</t>
-  </si>
-  <si>
     <t>Five-layer structure miniature mat</t>
   </si>
   <si>
@@ -2096,6 +2093,116 @@
   </si>
   <si>
     <t>Explore larger sensor areas, incorporate body movement tracking, collect more data for bed occupancy detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velostat 
+(Flexible material) </t>
+  </si>
+  <si>
+    <t>Smart Pressure e-Mat for Human Sleeping Posture and Dynamic Activity Recognition</t>
+  </si>
+  <si>
+    <t>Yuan 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Piezoresistive Pressure Sensors</t>
+  </si>
+  <si>
+    <t>Velostat (Linqstat)</t>
+  </si>
+  <si>
+    <t>Velostat Sensor Array</t>
+  </si>
+  <si>
+    <t>Smart Pressure e-Mat (SPeM)</t>
+  </si>
+  <si>
+    <t>2.030 m × 1.525 m</t>
+  </si>
+  <si>
+    <t>Piezoresistive Technology</t>
+  </si>
+  <si>
+    <t>Distributed throughout the pressure mat</t>
+  </si>
+  <si>
+    <t>Pressure exerted by human body</t>
+  </si>
+  <si>
+    <t>4 Sleep
+5 activity</t>
+  </si>
+  <si>
+    <t>Supine, Prone, Left Lateral, Right Lateral, etc.</t>
+  </si>
+  <si>
+    <t>Arduino Nano (central signal processing unit)</t>
+  </si>
+  <si>
+    <t>Deep Neural Networks (CNN, CRNN, 3D CNN for classification)</t>
+  </si>
+  <si>
+    <t>14,000 image stream samples</t>
+  </si>
+  <si>
+    <t>Sleeping posture: 0.988 (CRNN), Dynamic activity: 1.0 (CRNN)</t>
+  </si>
+  <si>
+    <t>Crosstalk and noise from Velostat's non-ideal electrical properties</t>
+  </si>
+  <si>
+    <t>Fusion with wearable sensors, image resolution improvements, and multi-modal sensing</t>
+  </si>
+  <si>
+    <t>A Smart IoT System for Detecting the Position of a Lying Person Using a Novel Textile Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Hudec 2021</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Textile pressure Sensor</t>
+  </si>
+  <si>
+    <t>Velostat and electrically conductive yarn</t>
+  </si>
+  <si>
+    <t>Mattress topper</t>
+  </si>
+  <si>
+    <t>Resistive sensing technology</t>
+  </si>
+  <si>
+    <t>Distributed across the mattress topper</t>
+  </si>
+  <si>
+    <t>Pressure exerted by the person lying on the bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Yes, using MQTT protocol and QIoT suite</t>
+  </si>
+  <si>
+    <t>Data about lying positions are displayed in a desktop application for the staff</t>
+  </si>
+  <si>
+    <t>Supine, Left Lateral, Prone, Right Lateral</t>
+  </si>
+  <si>
+    <t>NodeMCU with ESP8266</t>
+  </si>
+  <si>
+    <t>120x31=3720</t>
+  </si>
+  <si>
+    <t>Variation in pressure distribution due to differences in subject weight</t>
+  </si>
+  <si>
+    <t>Improving the system for diverse body weights, further sensor optimization</t>
+  </si>
+  <si>
+    <t>paper#</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2593,11 +2700,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3131,12 +3249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3149,10 +3261,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9191,658 +9318,828 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="95" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" style="95" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="95" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="95" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="95" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="95" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" style="95" customWidth="1"/>
-    <col min="11" max="12" width="22.85546875" style="95" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="95" customWidth="1"/>
-    <col min="14" max="16" width="22.85546875" style="95" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="95" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" style="118" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" style="95" customWidth="1"/>
-    <col min="20" max="21" width="34" style="95" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" style="95" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="95" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="95" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="21.85546875" style="95" customWidth="1"/>
-    <col min="28" max="28" width="29.85546875" customWidth="1"/>
-    <col min="29" max="29" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" style="95" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="95" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="95" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="95" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="95" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="95" customWidth="1"/>
+    <col min="12" max="13" width="22.85546875" style="95" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="95" customWidth="1"/>
+    <col min="15" max="17" width="22.85546875" style="95" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="95" customWidth="1"/>
+    <col min="19" max="19" width="43.7109375" style="118" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="95" customWidth="1"/>
+    <col min="21" max="22" width="34" style="95" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" style="95" customWidth="1"/>
+    <col min="24" max="24" width="20.140625" style="95" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" style="95" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="21.85546875" style="95" customWidth="1"/>
+    <col min="29" max="29" width="29.85546875" customWidth="1"/>
+    <col min="30" max="30" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="190" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="C1" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="D1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="E1" s="190" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="190" t="s">
+      <c r="F1" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="190" t="s">
+      <c r="G1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="190" t="s">
+      <c r="H1" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="190" t="s">
+      <c r="I1" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="190" t="s">
+      <c r="J1" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="190" t="s">
+      <c r="K1" s="190" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" s="190" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="190" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="190" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="190" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1" s="190" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="190" t="s">
+        <v>498</v>
+      </c>
+      <c r="R1" s="190" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="190" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="190" t="s">
+        <v>172</v>
+      </c>
+      <c r="V1" s="190" t="s">
+        <v>499</v>
+      </c>
+      <c r="W1" s="190" t="s">
+        <v>173</v>
+      </c>
+      <c r="X1" s="190" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y1" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" s="190" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA1" s="190" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB1" s="190" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC1" s="190" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD1" s="190" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="199">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="21">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="R2" s="22">
+        <v>4</v>
+      </c>
+      <c r="S2" s="201" t="s">
+        <v>509</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z2" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA2" s="72" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="192" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD2" s="192" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="199">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="D3" s="85">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="J3" s="21">
+        <v>64</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="R3" s="22">
+        <v>4</v>
+      </c>
+      <c r="S3" s="198" t="s">
+        <v>624</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y3" s="74">
+        <v>0.92</v>
+      </c>
+      <c r="Z3" s="72">
+        <v>0.84</v>
+      </c>
+      <c r="AA3" s="72">
+        <v>0.91</v>
+      </c>
+      <c r="AB3" s="72">
+        <v>0.84</v>
+      </c>
+      <c r="AC3" s="192" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD3" s="192" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="199">
+        <v>3</v>
+      </c>
+      <c r="B4" s="200" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="202" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="203">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="K1" s="190" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="190" t="s">
-        <v>167</v>
-      </c>
-      <c r="M1" s="190" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="190" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="190" t="s">
-        <v>166</v>
-      </c>
-      <c r="P1" s="190" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q1" s="190" t="s">
-        <v>169</v>
-      </c>
-      <c r="R1" s="191" t="s">
-        <v>170</v>
-      </c>
-      <c r="S1" s="190" t="s">
-        <v>171</v>
-      </c>
-      <c r="T1" s="190" t="s">
-        <v>172</v>
-      </c>
-      <c r="U1" s="190" t="s">
-        <v>499</v>
-      </c>
-      <c r="V1" s="190" t="s">
-        <v>173</v>
-      </c>
-      <c r="W1" s="190" t="s">
-        <v>174</v>
-      </c>
-      <c r="X1" s="190" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y1" s="190" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z1" s="190" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA1" s="190" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB1" s="190" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC1" s="190" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="192" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>501</v>
-      </c>
-      <c r="C2" s="21">
-        <v>2021</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="L4" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="R4" s="22">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="W4" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="72" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="192" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD4" s="192" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="199">
+        <v>4</v>
+      </c>
+      <c r="B5" s="200" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="202" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" s="203">
+        <v>2016</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q2" s="22">
+      <c r="G5" s="22"/>
+      <c r="H5" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="R5" s="22">
+        <v>3</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA5" s="72" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="192" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD5" s="192" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="199">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" s="192" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="203">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="G6" s="193" t="s">
+        <v>598</v>
+      </c>
+      <c r="H6" s="193" t="s">
+        <v>599</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="193" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD6" s="193" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="199">
+        <v>6</v>
+      </c>
+      <c r="B7" s="200" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="195" t="s">
+        <v>574</v>
+      </c>
+      <c r="D7" s="195">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="195" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="H7" s="192" t="s">
+        <v>560</v>
+      </c>
+      <c r="I7" s="192" t="s">
+        <v>561</v>
+      </c>
+      <c r="J7" s="192" t="s">
+        <v>562</v>
+      </c>
+      <c r="K7" s="195"/>
+      <c r="L7" s="192" t="s">
+        <v>563</v>
+      </c>
+      <c r="M7" s="192" t="s">
+        <v>564</v>
+      </c>
+      <c r="N7" s="192" t="s">
+        <v>565</v>
+      </c>
+      <c r="O7" s="192" t="s">
+        <v>566</v>
+      </c>
+      <c r="P7" s="195" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" s="192" t="s">
+        <v>567</v>
+      </c>
+      <c r="R7" s="192" t="s">
+        <v>568</v>
+      </c>
+      <c r="S7" s="192" t="s">
+        <v>569</v>
+      </c>
+      <c r="T7" s="192" t="s">
+        <v>570</v>
+      </c>
+      <c r="U7" s="192" t="s">
+        <v>571</v>
+      </c>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="195"/>
+      <c r="Z7" s="196">
+        <v>0.93</v>
+      </c>
+      <c r="AA7" s="195"/>
+      <c r="AB7" s="195"/>
+      <c r="AC7" s="192" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD7" s="192" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="94" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="199">
+        <v>7</v>
+      </c>
+      <c r="B8" s="200" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="22">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
-        <v>510</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="Y2" s="72" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z2" s="72" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="194" t="s">
-        <v>517</v>
-      </c>
-      <c r="AC2" s="194" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
-        <v>519</v>
-      </c>
-      <c r="B3" s="120" t="s">
-        <v>520</v>
-      </c>
-      <c r="C3" s="121">
-        <v>2021</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>6</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="S8" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="U8" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="S3" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="72" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="194" t="s">
-        <v>540</v>
-      </c>
-      <c r="AC3" s="194" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
-        <v>541</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4" s="121">
-        <v>2016</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>3</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="W4" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z4" s="72" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="194" t="s">
-        <v>557</v>
-      </c>
-      <c r="AC4" s="194" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="193" t="s">
-        <v>559</v>
-      </c>
-      <c r="B5" s="197" t="s">
-        <v>575</v>
-      </c>
-      <c r="C5" s="197">
-        <v>2023</v>
-      </c>
-      <c r="D5" s="197" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="197" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" s="192" t="s">
-        <v>561</v>
-      </c>
-      <c r="H5" s="192" t="s">
-        <v>562</v>
-      </c>
-      <c r="I5" s="192" t="s">
-        <v>563</v>
-      </c>
-      <c r="J5" s="197"/>
-      <c r="K5" s="192" t="s">
-        <v>564</v>
-      </c>
-      <c r="L5" s="192" t="s">
-        <v>565</v>
-      </c>
-      <c r="M5" s="192" t="s">
-        <v>566</v>
-      </c>
-      <c r="N5" s="192" t="s">
-        <v>567</v>
-      </c>
-      <c r="O5" s="197" t="s">
-        <v>576</v>
-      </c>
-      <c r="P5" s="192" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q5" s="192" t="s">
-        <v>569</v>
-      </c>
-      <c r="R5" s="192" t="s">
-        <v>570</v>
-      </c>
-      <c r="S5" s="192" t="s">
-        <v>571</v>
-      </c>
-      <c r="T5" s="192" t="s">
-        <v>572</v>
-      </c>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="198">
-        <v>0.93</v>
-      </c>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="192" t="s">
-        <v>573</v>
-      </c>
-      <c r="AC5" s="192" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="192"/>
-      <c r="S6" s="192"/>
-      <c r="T6" s="192"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="192"/>
-      <c r="AC6" s="192"/>
-    </row>
-    <row r="7" spans="1:29" s="94" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="199" t="s">
-        <v>577</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" s="22">
-        <v>2024</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>4</v>
-      </c>
-      <c r="R7" s="22" t="s">
+      <c r="V8" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="W8" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="T7" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="U7" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="V7" s="22" t="s">
+      <c r="X8" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="W7" s="22" t="s">
+      <c r="Y8" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="X7" s="22" t="s">
+      <c r="Z8" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="Y7" s="22" t="s">
+      <c r="AA8" s="72">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AB8" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="Z7" s="72">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AC8" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="AB7" s="200" t="s">
+      <c r="AD8" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="AC7" s="200" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="195"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
-      <c r="B10" s="195"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
-      <c r="B11" s="195"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
-      <c r="B12" s="195"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
-      <c r="B13" s="195"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="196"/>
-      <c r="B14" s="195"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="196"/>
-      <c r="B15" s="195"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="196"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="196"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="196"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="196"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="196"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="196"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="196"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="196"/>
-      <c r="B23" s="195"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="196"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="196"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="196"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="196"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="196"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="195"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="196"/>
-      <c r="B30" s="195"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="196"/>
-      <c r="B31" s="195"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="196"/>
-      <c r="B32" s="195"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="196"/>
-      <c r="B33" s="195"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="196"/>
-      <c r="B34" s="195"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="196"/>
-      <c r="B35" s="195"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="196"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="196"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="194"/>
+      <c r="C10" s="193"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="194"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="194"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="194"/>
+      <c r="C14" s="193"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="194"/>
+      <c r="C15" s="193"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="194"/>
+      <c r="C16" s="193"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="194"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="194"/>
+      <c r="C18" s="193"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="194"/>
+      <c r="C19" s="193"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="194"/>
+      <c r="C20" s="193"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="194"/>
+      <c r="C21" s="193"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="194"/>
+      <c r="C22" s="193"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="194"/>
+      <c r="C23" s="193"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="194"/>
+      <c r="C24" s="193"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="194"/>
+      <c r="C25" s="193"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="194"/>
+      <c r="C26" s="193"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="194"/>
+      <c r="C27" s="193"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="194"/>
+      <c r="C28" s="193"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="194"/>
+      <c r="C29" s="193"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="194"/>
+      <c r="C30" s="193"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="194"/>
+      <c r="C31" s="193"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="194"/>
+      <c r="C32" s="193"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="194"/>
+      <c r="C33" s="193"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="194"/>
+      <c r="C34" s="193"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="194"/>
+      <c r="C35" s="193"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="194"/>
+      <c r="C36" s="193"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="194"/>
+      <c r="C37" s="193"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="194"/>
+      <c r="C38" s="193"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="194"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="194"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13331,6 +13628,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D86B0467C8778A4896096E58A738E877" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a8f5d213ce12075409aa9292d25b5485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22889b2a-e369-4f7d-9ac6-bb136fb8b756" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff8afc11520742ae1b26ea4082abcef4" ns2:_="">
     <xsd:import namespace="22889b2a-e369-4f7d-9ac6-bb136fb8b756"/>
@@ -13474,22 +13786,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5BC9BC-2C06-468A-BAD2-F311B2EA373A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AE1D26-874A-42F4-B693-E19F8FFD4718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5224A2D3-799A-4CFF-9450-A7320BB3A2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13505,21 +13819,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AE1D26-874A-42F4-B693-E19F8FFD4718}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5BC9BC-2C06-468A-BAD2-F311B2EA373A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>